--- a/Aula 4/Aula 4 - Final.xlsx
+++ b/Aula 4/Aula 4 - Final.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3C5ED0-8E97-4236-B504-609191B08510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1BD712-CB6A-4126-A5C4-3314117263AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF97373E-2A92-4B13-A26B-B2D098D070D1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Pão</t>
   </si>
@@ -70,15 +70,22 @@
   </si>
   <si>
     <t>Mostarda</t>
+  </si>
+  <si>
+    <t>Purê de Batata</t>
+  </si>
+  <si>
+    <t>Batata Palha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;R$&quot;#,##0;[Red]\-&quot;R$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.0;[Red]\-&quot;R$&quot;#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.0;[Red]\-&quot;R$&quot;#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -117,12 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,15 +448,15 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -481,13 +489,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C3" s="2">
-        <f>$B3*$G3</f>
+        <f>$B3 * VLOOKUP($A3,$F$3:$G$8, 2,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="D3" s="2"/>
@@ -509,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C7" si="0">$B4*$G4</f>
+        <f>$B4 * VLOOKUP($A4,$F$3:$G$8, 2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
@@ -526,13 +534,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C7" si="0">$B5 * VLOOKUP($A5,$F$3:$G$8, 2,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="F5" t="s">
@@ -547,20 +555,20 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.03</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -568,14 +576,14 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.05</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -584,6 +592,17 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -594,7 +613,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2">
         <f>SUM(C3:C7)</f>
-        <v>3.36</v>
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>
